--- a/data/conta_corrente.xlsx
+++ b/data/conta_corrente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADB77A0-087C-4E17-88D9-0B52BC54A430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2231FD03-E87D-4371-9CB2-26C896931067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JANEIRO" sheetId="27" r:id="rId1"/>
@@ -18,12 +18,6 @@
     <sheet name="MARÇO" sheetId="26" r:id="rId3"/>
     <sheet name="ABRIL" sheetId="29" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -514,179 +508,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="14-10"/>
-      <sheetName val="Planilha2"/>
-      <sheetName val="Planilha3"/>
-      <sheetName val="01.2025"/>
-      <sheetName val="02.2025"/>
-      <sheetName val="03.2025"/>
-      <sheetName val="04.2025"/>
-      <sheetName val="HISTORICO"/>
-      <sheetName val="ANALISE ANUAL"/>
-      <sheetName val="RANKINGS"/>
-      <sheetName val="ANALISE TRIMESTRAL"/>
-      <sheetName val="GRAFICO "/>
-      <sheetName val="IMPRESSAO"/>
-      <sheetName val="GRAFICO APRESENTACAO "/>
-      <sheetName val="ACUMULADO MÊS"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="15">
-          <cell r="E15">
-            <v>64774.969999999994</v>
-          </cell>
-          <cell r="G15">
-            <v>28.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="GERAL"/>
-      <sheetName val="RESUMO"/>
-      <sheetName val="AMD 01"/>
-      <sheetName val="AMD 02"/>
-      <sheetName val="AMD 04"/>
-      <sheetName val="AMD 05"/>
-      <sheetName val="AMD 06"/>
-      <sheetName val="AMD 07"/>
-      <sheetName val="AMD 08"/>
-      <sheetName val="AMD 09"/>
-      <sheetName val="AMD 10"/>
-      <sheetName val="AMD 11"/>
-      <sheetName val="graficos resultados"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="37">
-          <cell r="BT37">
-            <v>103.16999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="SETEMBRO"/>
-      <sheetName val="OUTUBRO"/>
-      <sheetName val="NOVEMBRO"/>
-      <sheetName val="DEZEMBRO"/>
-      <sheetName val="04.2025"/>
-      <sheetName val="extrato"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
-        <row r="5">
-          <cell r="F5">
-            <v>5338.96</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="PEDIDOS PENDENTES"/>
-      <sheetName val="PEDIDOS ENTREGUES"/>
-      <sheetName val="DEVOLUÇÃO"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="B8">
-            <v>9212.5400000000009</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>976</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="D2">
-            <v>29987.64</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>1820.07</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
@@ -1502,7 +1323,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,7 +1337,6 @@
         <v>4</v>
       </c>
       <c r="B1" s="9">
-        <f>'[1]04.2025'!$E$15</f>
         <v>64774.969999999994</v>
       </c>
     </row>
@@ -1533,7 +1353,6 @@
         <v>16</v>
       </c>
       <c r="B3" s="9">
-        <f>[2]RESUMO!$BT$37</f>
         <v>103.16999999999999</v>
       </c>
     </row>
@@ -1542,7 +1361,6 @@
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <f>'[1]04.2025'!$G$15</f>
         <v>28.4</v>
       </c>
     </row>
@@ -1551,7 +1369,6 @@
         <v>5</v>
       </c>
       <c r="B5" s="11">
-        <f>B1+B2-B4</f>
         <v>66273.509999999995</v>
       </c>
     </row>
@@ -1560,8 +1377,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="19">
-        <f>[3]extrato!F5*40%</f>
-        <v>2135.5840000000003</v>
+        <v>26520.763999999996</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1577,8 +1393,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="23">
-        <f>B6-B17</f>
-        <v>-38884.665999999997</v>
+        <v>-14499.486000000004</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1608,7 +1423,6 @@
         <v>13</v>
       </c>
       <c r="B12" s="14">
-        <f>'[4]PEDIDOS PENDENTES'!$B$9</f>
         <v>976</v>
       </c>
     </row>
@@ -1617,7 +1431,6 @@
         <v>8</v>
       </c>
       <c r="B13" s="14">
-        <f>'[4]PEDIDOS PENDENTES'!$B$8</f>
         <v>9212.5400000000009</v>
       </c>
     </row>
@@ -1626,7 +1439,6 @@
         <v>9</v>
       </c>
       <c r="B14" s="14">
-        <f>'[4]PEDIDOS ENTREGUES'!$D$2</f>
         <v>29987.64</v>
       </c>
     </row>
@@ -1635,7 +1447,6 @@
         <v>10</v>
       </c>
       <c r="B15" s="14">
-        <f>'[4]PEDIDOS ENTREGUES'!$D$3</f>
         <v>1820.07</v>
       </c>
     </row>
@@ -1644,7 +1455,6 @@
         <v>0</v>
       </c>
       <c r="B16" s="17">
-        <f>B14+B15</f>
         <v>31807.71</v>
       </c>
     </row>
@@ -1653,7 +1463,6 @@
         <v>1</v>
       </c>
       <c r="B17" s="21">
-        <f>SUM(B13+B16)</f>
         <v>41020.25</v>
       </c>
     </row>

--- a/data/conta_corrente.xlsx
+++ b/data/conta_corrente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2231FD03-E87D-4371-9CB2-26C896931067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BEE7A0-5D0B-446C-B9C0-13CEAF4E4E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="10455" windowHeight="10800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JANEIRO" sheetId="27" r:id="rId1"/>
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="9">
-        <v>64774.969999999994</v>
+        <v>71100.689999999988</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="9">
-        <v>1526.94</v>
+        <v>1681.54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1353,7 +1353,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="9">
-        <v>103.16999999999999</v>
+        <v>109.16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>28.4</v>
+        <v>106.93</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="11">
-        <v>66273.509999999995</v>
+        <v>72675.299999999988</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="19">
-        <v>26520.763999999996</v>
+        <v>29112.891999999993</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="23">
-        <v>-14499.486000000004</v>
+        <v>-13967.358000000007</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1415,7 +1415,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="12">
-        <v>10370.36</v>
+        <v>13955.29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="14">
-        <v>976</v>
+        <v>4125.4799999999996</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="14">
-        <v>29987.64</v>
+        <v>32047.64</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="17">
-        <v>31807.71</v>
+        <v>33867.71</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="21">
-        <v>41020.25</v>
+        <v>43080.25</v>
       </c>
     </row>
   </sheetData>

--- a/data/conta_corrente.xlsx
+++ b/data/conta_corrente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BEE7A0-5D0B-446C-B9C0-13CEAF4E4E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA78343F-FB37-4606-B792-4D7E81BEF03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="0" windowWidth="10455" windowHeight="10800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/conta_corrente.xlsx
+++ b/data/conta_corrente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA78343F-FB37-4606-B792-4D7E81BEF03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05114F0B-3BDA-4AC3-ACA9-554B45422A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="0" windowWidth="10455" windowHeight="10800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JANEIRO" sheetId="27" r:id="rId1"/>
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="9">
-        <v>71100.689999999988</v>
+        <v>93933.989999999991</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="9">
-        <v>1681.54</v>
+        <v>4186.0200000000004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1353,7 +1353,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="9">
-        <v>109.16</v>
+        <v>174.18999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="11">
-        <v>72675.299999999988</v>
+        <v>98013.08</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="19">
-        <v>29112.891999999993</v>
+        <v>39248.004000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="23">
-        <v>-13967.358000000007</v>
+        <v>-1800.2459999999992</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1401,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="5">
-        <v>152000</v>
+        <v>149000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="14">
-        <v>9212.5400000000009</v>
+        <v>3460.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="14">
-        <v>32047.64</v>
+        <v>35767.68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="17">
-        <v>33867.71</v>
+        <v>37587.75</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="21">
-        <v>43080.25</v>
+        <v>41048.25</v>
       </c>
     </row>
   </sheetData>

--- a/data/conta_corrente.xlsx
+++ b/data/conta_corrente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05114F0B-3BDA-4AC3-ACA9-554B45422A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4370A022-F69A-4059-98E7-E682B42860B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="9">
-        <v>93933.989999999991</v>
+        <v>107095.59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="9">
-        <v>4186.0200000000004</v>
+        <v>5055.7299999999996</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1353,7 +1353,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="9">
-        <v>174.18999999999997</v>
+        <v>174.79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>106.93</v>
+        <v>409.15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="11">
-        <v>98013.08</v>
+        <v>111742.17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="19">
-        <v>39248.004000000001</v>
+        <v>44860.527999999998</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="23">
-        <v>-1800.2459999999992</v>
+        <v>-19085.682000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="14">
-        <v>4125.4799999999996</v>
+        <v>1030.97</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="14">
-        <v>35767.68</v>
+        <v>58648.47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="14">
-        <v>1820.07</v>
+        <v>1837.24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="17">
-        <v>37587.75</v>
+        <v>60485.71</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="21">
-        <v>41048.25</v>
+        <v>63946.21</v>
       </c>
     </row>
   </sheetData>

--- a/data/conta_corrente.xlsx
+++ b/data/conta_corrente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4370A022-F69A-4059-98E7-E682B42860B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83A9416-9C89-45E3-8CD5-58B80B4D136B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="9">
-        <v>107095.59</v>
+        <v>160176.38999999998</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="9">
-        <v>5055.7299999999996</v>
+        <v>6217.8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1353,7 +1353,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="9">
-        <v>174.79</v>
+        <v>204.56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="11">
-        <v>111742.17</v>
+        <v>165985.03999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="19">
-        <v>44860.527999999998</v>
+        <v>66557.675999999992</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="23">
-        <v>-19085.682000000001</v>
+        <v>-7539.4040000000095</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1408,14 +1408,16 @@
       <c r="A10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <v>4061.3</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="12">
-        <v>13955.29</v>
+        <v>14614.84</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1423,7 +1425,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="14">
-        <v>1030.97</v>
+        <v>635.23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1431,7 +1433,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="14">
-        <v>3460.5</v>
+        <v>4012.44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,7 +1441,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="14">
-        <v>58648.47</v>
+        <v>63558.78</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1447,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="14">
-        <v>1837.24</v>
+        <v>6525.86</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="17">
-        <v>60485.71</v>
+        <v>70084.639999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1463,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="21">
-        <v>63946.21</v>
+        <v>74097.08</v>
       </c>
     </row>
   </sheetData>

--- a/data/conta_corrente.xlsx
+++ b/data/conta_corrente.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83A9416-9C89-45E3-8CD5-58B80B4D136B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2690B9-1CBA-48AA-B830-D5F166C4367D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JANEIRO" sheetId="27" r:id="rId1"/>
     <sheet name="FEVEREIRO" sheetId="28" r:id="rId2"/>
     <sheet name="MARÇO" sheetId="26" r:id="rId3"/>
     <sheet name="ABRIL" sheetId="29" r:id="rId4"/>
+    <sheet name="MAIO" sheetId="30" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
   <si>
     <t>TOTAL RECEBIDAS GERAL</t>
   </si>
@@ -1322,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6D16A6-BCEA-41E1-9837-8A75EFD15329}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,4 +1473,159 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3386FAAA-C4BE-4354-A889-D4E854E12061}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9">
+        <v>49430.68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9">
+        <v>31.669999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11">
+        <v>49545.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19">
+        <v>19818.072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23">
+        <v>-67932.368000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5">
+        <v>149000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1561.3000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14">
+        <v>3934.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="14">
+        <v>81961.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="14">
+        <v>1854.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="17">
+        <v>83816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="21">
+        <v>87750.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>